--- a/US/data/BOC/FTD/FTDE/old/ctyseasonal.xlsx
+++ b/US/data/BOC/FTD/FTDE/old/ctyseasonal.xlsx
@@ -39065,11 +39065,20 @@
       <c r="D248">
         <v>-28241210404.836876</v>
       </c>
+      <c r="E248">
+        <v>-28977346103.08941</v>
+      </c>
       <c r="T248">
         <v>46605561083.2761</v>
       </c>
+      <c r="U248">
+        <v>48083738835.60403</v>
+      </c>
       <c r="AJ248">
         <v>74846771488.11298</v>
+      </c>
+      <c r="AK248">
+        <v>77061084938.69344</v>
       </c>
     </row>
     <row r="249" spans="1:51" x14ac:dyDescent="0.25">
@@ -39085,11 +39094,20 @@
       <c r="D249">
         <v>1104520250.1690712</v>
       </c>
+      <c r="E249">
+        <v>1208616491.9061794</v>
+      </c>
       <c r="T249">
         <v>3999999162.153935</v>
       </c>
+      <c r="U249">
+        <v>3973369039.5355377</v>
+      </c>
       <c r="AJ249">
         <v>2895478911.9848638</v>
+      </c>
+      <c r="AK249">
+        <v>2764752547.6293583</v>
       </c>
     </row>
     <row r="250" spans="1:51" x14ac:dyDescent="0.25">
@@ -39105,11 +39123,20 @@
       <c r="D250">
         <v>1061585525.9176054</v>
       </c>
+      <c r="E250">
+        <v>1019806752.4458632</v>
+      </c>
       <c r="T250">
         <v>3908499544.769113</v>
       </c>
+      <c r="U250">
+        <v>3667834913.5712123</v>
+      </c>
       <c r="AJ250">
         <v>2846914018.8515077</v>
+      </c>
+      <c r="AK250">
+        <v>2648028161.125349</v>
       </c>
     </row>
     <row r="251" spans="1:51" x14ac:dyDescent="0.25">
@@ -39123,13 +39150,22 @@
         <v>58</v>
       </c>
       <c r="D251">
-        <v>-6824475099.201164</v>
+        <v>-6880511255.648861</v>
+      </c>
+      <c r="E251">
+        <v>-6847953335.008358</v>
       </c>
       <c r="T251">
-        <v>27659136067.654236</v>
+        <v>27603099911.20654</v>
+      </c>
+      <c r="U251">
+        <v>27079310674.22233</v>
       </c>
       <c r="AJ251">
         <v>34483611166.8554</v>
+      </c>
+      <c r="AK251">
+        <v>33927264009.230686</v>
       </c>
     </row>
     <row r="252" spans="1:51" x14ac:dyDescent="0.25">
@@ -39145,11 +39181,20 @@
       <c r="D252">
         <v>-33294525138.938965</v>
       </c>
+      <c r="E252">
+        <v>-41207855184.2277</v>
+      </c>
       <c r="T252">
         <v>12764657710.512802</v>
       </c>
+      <c r="U252">
+        <v>12975459336.654984</v>
+      </c>
       <c r="AJ252">
         <v>46059182849.45177</v>
+      </c>
+      <c r="AK252">
+        <v>54183314520.88268</v>
       </c>
     </row>
     <row r="253" spans="1:51" x14ac:dyDescent="0.25">
@@ -39165,11 +39210,20 @@
       <c r="D253">
         <v>-18021833052.627472</v>
       </c>
+      <c r="E253">
+        <v>-16950702307.491142</v>
+      </c>
       <c r="T253">
         <v>25113783750.09977</v>
       </c>
+      <c r="U253">
+        <v>26217436142.703773</v>
+      </c>
       <c r="AJ253">
         <v>43135616802.72724</v>
+      </c>
+      <c r="AK253">
+        <v>43168138450.194916</v>
       </c>
     </row>
     <row r="254" spans="1:51" x14ac:dyDescent="0.25">
@@ -39185,11 +39239,20 @@
       <c r="D254">
         <v>-801176076.2590113</v>
       </c>
+      <c r="E254">
+        <v>-950275137.1490302</v>
+      </c>
       <c r="T254">
         <v>3634116349.6533384</v>
       </c>
+      <c r="U254">
+        <v>3424427146.358828</v>
+      </c>
       <c r="AJ254">
         <v>4435292425.91235</v>
+      </c>
+      <c r="AK254">
+        <v>4374702283.507858</v>
       </c>
     </row>
     <row r="255" spans="1:51" x14ac:dyDescent="0.25">
@@ -39205,11 +39268,20 @@
       <c r="D255">
         <v>-5378345597.330938</v>
       </c>
+      <c r="E255">
+        <v>-5368383455.221161</v>
+      </c>
       <c r="T255">
         <v>5760940745.238953</v>
       </c>
+      <c r="U255">
+        <v>5423293536.538788</v>
+      </c>
       <c r="AJ255">
         <v>11139286342.569891</v>
+      </c>
+      <c r="AK255">
+        <v>10791676991.759949</v>
       </c>
     </row>
     <row r="256" spans="1:51" x14ac:dyDescent="0.25">
@@ -39225,11 +39297,20 @@
       <c r="D256">
         <v>1993327823.3052843</v>
       </c>
+      <c r="E256">
+        <v>1360451646.7177649</v>
+      </c>
       <c r="T256">
         <v>2354879138.629404</v>
       </c>
+      <c r="U256">
+        <v>1927333258.251038</v>
+      </c>
       <c r="AJ256">
         <v>361551315.32411987</v>
+      </c>
+      <c r="AK256">
+        <v>566881611.5332733</v>
       </c>
     </row>
     <row r="257" spans="1:51" x14ac:dyDescent="0.25">
@@ -39245,11 +39326,20 @@
       <c r="D257">
         <v>-2393674885.832427</v>
       </c>
+      <c r="E257">
+        <v>-2223320689.933593</v>
+      </c>
       <c r="T257">
         <v>4272389293.0754147</v>
       </c>
+      <c r="U257">
+        <v>4094418183.2312517</v>
+      </c>
       <c r="AJ257">
         <v>6666064178.907842</v>
+      </c>
+      <c r="AK257">
+        <v>6317738873.1648445</v>
       </c>
     </row>
     <row r="258" spans="1:51" x14ac:dyDescent="0.25">
@@ -39265,11 +39355,20 @@
       <c r="D258">
         <v>-3155683880.7765226</v>
       </c>
+      <c r="E258">
+        <v>-3029435283.4671783</v>
+      </c>
       <c r="T258">
         <v>2239868514.1197653</v>
       </c>
+      <c r="U258">
+        <v>2180981237.4733505</v>
+      </c>
       <c r="AJ258">
         <v>5395552394.896288</v>
+      </c>
+      <c r="AK258">
+        <v>5210416520.940529</v>
       </c>
     </row>
     <row r="259" spans="1:51" x14ac:dyDescent="0.25">
@@ -39285,11 +39384,20 @@
       <c r="D259">
         <v>-7148559651.878104</v>
       </c>
+      <c r="E259">
+        <v>-5119232373.121945</v>
+      </c>
       <c r="T259">
         <v>6249492612.509923</v>
       </c>
+      <c r="U259">
+        <v>7131641820.932029</v>
+      </c>
       <c r="AJ259">
         <v>13398052264.388027</v>
+      </c>
+      <c r="AK259">
+        <v>12250874194.053974</v>
       </c>
     </row>
     <row r="260" spans="1:51" x14ac:dyDescent="0.25">
@@ -39305,11 +39413,20 @@
       <c r="D260">
         <v>-2953049251.8592453</v>
       </c>
+      <c r="E260">
+        <v>-4098396990.9221373</v>
+      </c>
       <c r="T260">
         <v>5783739697.835691</v>
       </c>
+      <c r="U260">
+        <v>5315351781.450181</v>
+      </c>
       <c r="AJ260">
         <v>8736788949.694937</v>
+      </c>
+      <c r="AK260">
+        <v>9413748772.372318</v>
       </c>
     </row>
     <row r="261" spans="1:51" x14ac:dyDescent="0.25">
@@ -39325,11 +39442,20 @@
       <c r="D261">
         <v>-12474782179.40356</v>
       </c>
+      <c r="E261">
+        <v>-9818959294.533493</v>
+      </c>
       <c r="T261">
         <v>24927421101.57391</v>
       </c>
+      <c r="U261">
+        <v>25486392011.248695</v>
+      </c>
       <c r="AJ261">
         <v>37402203280.97747</v>
+      </c>
+      <c r="AK261">
+        <v>35305351305.78219</v>
       </c>
     </row>
     <row r="262" spans="1:51" x14ac:dyDescent="0.25">
@@ -39345,11 +39471,20 @@
       <c r="D262">
         <v>-836107552.2577287</v>
       </c>
+      <c r="E262">
+        <v>-950429369.4774092</v>
+      </c>
       <c r="T262">
         <v>861536400.2895094</v>
       </c>
+      <c r="U262">
+        <v>830960383.1369406</v>
+      </c>
       <c r="AJ262">
         <v>1697643952.547238</v>
+      </c>
+      <c r="AK262">
+        <v>1781389752.6143498</v>
       </c>
     </row>
     <row r="263" spans="1:51" x14ac:dyDescent="0.25">
@@ -39365,11 +39500,20 @@
       <c r="D263">
         <v>1262341683.9504538</v>
       </c>
+      <c r="E263">
+        <v>1220017216.6726484</v>
+      </c>
       <c r="T263">
         <v>3863931215.994757</v>
       </c>
+      <c r="U263">
+        <v>3475659477.6725006</v>
+      </c>
       <c r="AJ263">
         <v>2601589532.0443034</v>
+      </c>
+      <c r="AK263">
+        <v>2255642260.999852</v>
       </c>
     </row>
     <row r="264" spans="1:51" x14ac:dyDescent="0.25">
@@ -39385,11 +39529,20 @@
       <c r="D264">
         <v>4405801712.8566475</v>
       </c>
+      <c r="E264">
+        <v>5749229867.229385</v>
+      </c>
       <c r="T264">
         <v>16620678137.535402</v>
       </c>
+      <c r="U264">
+        <v>17056977193.670403</v>
+      </c>
       <c r="AJ264">
         <v>12214876424.678755</v>
+      </c>
+      <c r="AK264">
+        <v>11307747326.441017</v>
       </c>
     </row>
     <row r="265" spans="1:51" x14ac:dyDescent="0.25">
@@ -39405,11 +39558,20 @@
       <c r="D265">
         <v>-3931741047.997678</v>
       </c>
+      <c r="E265">
+        <v>-4218283711.831724</v>
+      </c>
       <c r="T265">
         <v>3128467640.898031</v>
       </c>
+      <c r="U265">
+        <v>3543820326.6966877</v>
+      </c>
       <c r="AJ265">
         <v>7060208688.895709</v>
+      </c>
+      <c r="AK265">
+        <v>7762104038.528412</v>
       </c>
     </row>
     <row r="266" spans="1:51" x14ac:dyDescent="0.25">
@@ -39425,11 +39587,20 @@
       <c r="D266">
         <v>1047288381.9423265</v>
       </c>
+      <c r="E266">
+        <v>928302166.0825481</v>
+      </c>
       <c r="T266">
         <v>5650655395.624707</v>
       </c>
+      <c r="U266">
+        <v>5312906596.058622</v>
+      </c>
       <c r="AJ266">
         <v>4603367013.682381</v>
+      </c>
+      <c r="AK266">
+        <v>4384604429.976074</v>
       </c>
     </row>
   </sheetData>
